--- a/data/processed_ground_truth/processed_normal.xlsx
+++ b/data/processed_ground_truth/processed_normal.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2266"/>
+  <dimension ref="A1:D2267"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -41225,6 +41225,24 @@
         </is>
       </c>
     </row>
+    <row r="2267">
+      <c r="A2267" t="inlineStr">
+        <is>
+          <t>ඉතින් යකෝ අර ඇඳිරි නීතිය ඉවත් කරලා තියෙන වෙලාවට කඩවලින් බඩු අරගෙන ලොරිවල පටවාගෙන උඹගෙ පැත්තෙ මිනිස්සුන්ට බෙදපං කො. උඹලා සල්ලි කාරයොනේ උඹලට ඕවා කරන්න පුළුවන්නේ . ඒ වෙලාවට බයේ ගෙදර හැංගිලා බයේ හැංගිලා ඉන්නවා .අහිංසක මිනිස්සු තමයි ඒ මිනිස්සුන්ගෙ ජීවිත ගැන වත් හිතන්නැතුව වැඩ කරන්නේ ඒ මිනිස්සුන්ට තමයි කවද හරි corona හැදෙන්නේ තෝ මෙතන බොරුවට කතා කරනවා</t>
+        </is>
+      </c>
+      <c r="B2267" t="inlineStr">
+        <is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="C2267" t="inlineStr"/>
+      <c r="D2267" t="inlineStr">
+        <is>
+          <t>ඉතින් යකෝ අර ඇඳිරි නීතිය ඉවත් කරලා තියෙන වෙලාවට කඩවලින් බඩු අරගෙන ලොරිවල පටවාගෙන උඹගෙ පැත්තෙ මිනිස්සුන්ට බෙදපං කො. උඹලා සල්ලි කාරයොනේ උඹලට ඕවා කරන්න පුළුවන්නේ . ඒ වෙලාවට බයේ ගෙදර හැංගිලා බයේ හැංගිලා ඉන්නවා .අහිංසක මිනිස්සු තමයි ඒ මිනිස්සුන්ගෙ ජීවිත ගැන වත් හිතන්නැතුව වැඩ කරන්නේ ඒ මිනිස්සුන්ට තමයි කවද හරි corona හැදෙන්නේ තෝ මෙතන බොරුවට කතා කරනවා</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
